--- a/local/public/excel_files/report_data.xlsx
+++ b/local/public/excel_files/report_data.xlsx
@@ -15,63 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
-  <si>
-    <t>Consignment No. (หมายเลขพัสดุ)</t>
-  </si>
-  <si>
-    <t>Customer Ref No. (เลขอ้างอิง)</t>
-  </si>
-  <si>
-    <t>Sender Code (รหัสผู้ส่ง)</t>
-  </si>
-  <si>
-    <t>Recipient Code (รหัสผู้รับ)</t>
-  </si>
-  <si>
-    <t>Recipient Name (ชื่อผู้รับ)</t>
-  </si>
-  <si>
-    <t>Address (ที่อยู่ผู้รับ)</t>
-  </si>
-  <si>
-    <t>Postcode (รหัสไปรษณีย์ผู้รับ)</t>
-  </si>
-  <si>
-    <t>Mobile (เบอร์มือถือผู้รับ)</t>
-  </si>
-  <si>
-    <t>Contact Person (ชื่อผู้ติดต่อ)</t>
-  </si>
-  <si>
-    <t>Phone No. (เบอร์ผู้รับ)</t>
-  </si>
-  <si>
-    <t>Email (อีเมลผู้รับ)</t>
-  </si>
-  <si>
-    <t>Declare Value (มูลค่าสินค้า)</t>
-  </si>
-  <si>
-    <t>COD Amount (ยอดเก็บเงินปลายทาง)</t>
-  </si>
-  <si>
-    <t>Remark (หมายเหตุ)</t>
-  </si>
-  <si>
-    <t>Total Box (จำนวนกล่อง)</t>
-  </si>
-  <si>
-    <t>Sat Del (จัดส่งวันเสาร์)</t>
-  </si>
-  <si>
-    <t>HCR (Y/N)</t>
-  </si>
-  <si>
-    <t>INVR (Y/N)</t>
-  </si>
-  <si>
-    <t>Service Code (รหัสบริการ)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>วันที่ 2022-01-20 ถึง 2022-01-20</t>
+  </si>
+  <si>
+    <t>รหัสสินค้า</t>
+  </si>
+  <si>
+    <t>ชื่อสินค้า</t>
+  </si>
+  <si>
+    <t>หน่วยนับ</t>
+  </si>
+  <si>
+    <t>ยอดยืม</t>
+  </si>
+  <si>
+    <t>ยอดคืน</t>
+  </si>
+  <si>
+    <t>คงค้าง</t>
   </si>
 </sst>
 </file>
@@ -94,7 +58,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color rgb="FF002699"/>
       <name val="Verdana"/>
     </font>
@@ -120,8 +84,8 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,96 +386,96 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:S1"/>
+      <selection activeCell="A2" sqref="A2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="36" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+    <col min="14" max="14" width="9.10" bestFit="true" style="0"/>
+    <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
+    <col min="18" max="18" width="9.10" bestFit="true" style="0"/>
+    <col min="19" max="19" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/local/public/excel_files/report_data.xlsx
+++ b/local/public/excel_files/report_data.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
-  <si>
-    <t>วันที่ 2022-01-20 ถึง 2022-01-20</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>วันที่ 2022-01-18 ถึง 2022-01-19</t>
   </si>
   <si>
     <t>รหัสสินค้า</t>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>คงค้าง</t>
+  </si>
+  <si>
+    <t>AIMMURA</t>
+  </si>
+  <si>
+    <t>ชิ้น</t>
+  </si>
+  <si>
+    <t>7-ACTIVE</t>
   </si>
 </sst>
 </file>
@@ -58,7 +67,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="16"/>
+      <sz val="10"/>
       <color rgb="FF002699"/>
       <name val="Verdana"/>
     </font>
@@ -386,7 +395,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2:S2"/>
@@ -394,12 +403,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="7" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="7" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="7" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
     <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
@@ -471,6 +480,46 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>1005</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>

--- a/local/public/excel_files/report_data.xlsx
+++ b/local/public/excel_files/report_data.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>วันที่ 2022-01-18 ถึง 2022-01-19</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t>วันที่ 1998-12-29 ถึง 2022-08-15</t>
   </si>
   <si>
     <t>รหัสสินค้า</t>
@@ -29,13 +29,7 @@
     <t>หน่วยนับ</t>
   </si>
   <si>
-    <t>ยอดยืม</t>
-  </si>
-  <si>
-    <t>ยอดคืน</t>
-  </si>
-  <si>
-    <t>คงค้าง</t>
+    <t>ยอดคงเหลือ</t>
   </si>
   <si>
     <t>AIMMURA</t>
@@ -45,6 +39,39 @@
   </si>
   <si>
     <t>7-ACTIVE</t>
+  </si>
+  <si>
+    <t>TRIMMAX COFFEE</t>
+  </si>
+  <si>
+    <t>MAZY MAC</t>
+  </si>
+  <si>
+    <t>ZIX PRO</t>
+  </si>
+  <si>
+    <t>COLLAMIN-B</t>
+  </si>
+  <si>
+    <t>VITAMIN CX+</t>
+  </si>
+  <si>
+    <t>MATCHA GREEN TEA LATTE</t>
+  </si>
+  <si>
+    <t>AIMMURA-19</t>
+  </si>
+  <si>
+    <t>1031S</t>
+  </si>
+  <si>
+    <t>AIMMURA-19 20 Cap.</t>
+  </si>
+  <si>
+    <t>AIRISA</t>
+  </si>
+  <si>
+    <t>AIDent Toothpaste 120g</t>
   </si>
 </sst>
 </file>
@@ -77,10 +104,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -395,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2:S2"/>
@@ -404,11 +428,11 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="26" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="7" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="7" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
     <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
     <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
@@ -460,12 +484,8 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -485,19 +505,13 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -505,18 +519,152 @@
         <v>1005</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>1006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>1007</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>1023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>1024</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>1027</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>1030</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>1031</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>1032</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>3001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
@@ -536,5 +684,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/local/public/excel_files/report_data.xlsx
+++ b/local/public/excel_files/report_data.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
-  <si>
-    <t>วันที่ 1998-12-29 ถึง 2022-08-15</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+  <si>
+    <t>วันที่ 2022-08-28 ถึง 2022-10-31</t>
   </si>
   <si>
     <t>รหัสสินค้า</t>
@@ -29,7 +29,13 @@
     <t>หน่วยนับ</t>
   </si>
   <si>
-    <t>ยอดคงเหลือ</t>
+    <t>จำนวนยกมา</t>
+  </si>
+  <si>
+    <t>จ่ายออก</t>
+  </si>
+  <si>
+    <t>จำนวนยกไป</t>
   </si>
   <si>
     <t>AIMMURA</t>
@@ -44,7 +50,13 @@
     <t>TRIMMAX COFFEE</t>
   </si>
   <si>
-    <t>MAZY MAC</t>
+    <t>AIMMURA-E</t>
+  </si>
+  <si>
+    <t>AIMMURA-V</t>
+  </si>
+  <si>
+    <t>AIMMURA-X</t>
   </si>
   <si>
     <t>ZIX PRO</t>
@@ -53,9 +65,21 @@
     <t>COLLAMIN-B</t>
   </si>
   <si>
+    <t>CASHEWY DRINK</t>
+  </si>
+  <si>
+    <t>VISA COFFEE</t>
+  </si>
+  <si>
     <t>VITAMIN CX+</t>
   </si>
   <si>
+    <t>ITEM PRO</t>
+  </si>
+  <si>
+    <t>AIFACAD</t>
+  </si>
+  <si>
     <t>MATCHA GREEN TEA LATTE</t>
   </si>
   <si>
@@ -71,7 +95,49 @@
     <t>AIRISA</t>
   </si>
   <si>
+    <t>KRACHY-MIX</t>
+  </si>
+  <si>
+    <t>IMMU HERB</t>
+  </si>
+  <si>
+    <t>7-ACTIVE SYNTECH</t>
+  </si>
+  <si>
+    <t>2004_old</t>
+  </si>
+  <si>
+    <t>AILADA HYA MILKY CLEANSER _ Cancel ไม่ใช้</t>
+  </si>
+  <si>
+    <t>SESAMIN SOAP</t>
+  </si>
+  <si>
+    <t>Nutrients Luminous Serum</t>
+  </si>
+  <si>
+    <t>Nutrients Water Balance</t>
+  </si>
+  <si>
+    <t>Deep Clean and Protect Facial Foam Hana Scent</t>
+  </si>
+  <si>
+    <t>AILADA HYA MILKY CLEANSER</t>
+  </si>
+  <si>
     <t>AIDent Toothpaste 120g</t>
+  </si>
+  <si>
+    <t>Healthy Pillowcase ปลอกหมอนสุขภาพ</t>
+  </si>
+  <si>
+    <t>PROTECT PLUS MOISTURIZING BATH CREAM</t>
+  </si>
+  <si>
+    <t>PROTECT PLUS MOISTURIZING SHAMPOO</t>
+  </si>
+  <si>
+    <t>PROTECT PLUS MOISTURIZING CONDITIONER</t>
   </si>
 </sst>
 </file>
@@ -115,7 +181,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -419,7 +485,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2:S2"/>
@@ -428,11 +494,11 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="54" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
-    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
     <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
     <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
@@ -484,8 +550,12 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -505,13 +575,19 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>0</v>
+      </c>
+      <c r="E3">
+        <v>5261</v>
+      </c>
+      <c r="F3">
+        <v>5261</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -519,13 +595,19 @@
         <v>1005</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>0</v>
+      </c>
+      <c r="E4">
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -533,139 +615,579 @@
         <v>1006</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>0</v>
+      </c>
+      <c r="E5">
+        <v>573</v>
+      </c>
+      <c r="F5">
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>0</v>
+      </c>
+      <c r="E6">
+        <v>167</v>
+      </c>
+      <c r="F6">
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>0</v>
+      </c>
+      <c r="E7">
+        <v>259</v>
+      </c>
+      <c r="F7">
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5080</v>
+      </c>
+      <c r="F8">
+        <v>5080</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>0</v>
+      </c>
+      <c r="E9">
+        <v>169</v>
+      </c>
+      <c r="F9">
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>0</v>
+      </c>
+      <c r="E10">
+        <v>103</v>
+      </c>
+      <c r="F10">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="E11">
+        <v>184</v>
+      </c>
+      <c r="F11">
+        <v>184</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>15</v>
+      <c r="A12">
+        <v>1026</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>0</v>
+      </c>
+      <c r="E12">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>0</v>
+      </c>
+      <c r="E13">
+        <v>271</v>
+      </c>
+      <c r="F13">
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14">
+        <v>1028</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>117</v>
+      </c>
+      <c r="F14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>1029</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>1030</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>1031</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>605</v>
+      </c>
+      <c r="F17">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>223</v>
+      </c>
+      <c r="F18">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>1032</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>175</v>
+      </c>
+      <c r="F19">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>1033</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>255</v>
+      </c>
+      <c r="F20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>1034</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>146</v>
+      </c>
+      <c r="F21">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>1035</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>461</v>
+      </c>
+      <c r="F22">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>2006</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>44</v>
+      </c>
+      <c r="F24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>2026</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26">
+        <v>2027</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>2029</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28">
+        <v>2030</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>57</v>
+      </c>
+      <c r="F28">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29">
         <v>3001</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>623</v>
+      </c>
+      <c r="F29">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30">
+        <v>3010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31">
+        <v>3014</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>55</v>
+      </c>
+      <c r="F31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32">
+        <v>3015</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>39</v>
+      </c>
+      <c r="F32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33">
+        <v>3016</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>39</v>
+      </c>
+      <c r="F33">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
